--- a/DATA_goal/Junction_Flooding_494.xlsx
+++ b/DATA_goal/Junction_Flooding_494.xlsx
@@ -443,37 +443,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
     <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
     <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
     <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
@@ -655,103 +655,103 @@
         <v>44825.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.44</v>
+        <v>4.41</v>
       </c>
       <c r="C2" s="4" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="D2" s="4" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>4.96</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>5.34</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>31.51</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>6.77</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.18</v>
       </c>
-      <c r="D2" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>0.26</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>3.15</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.02</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.91</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.55</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.92</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.51</v>
+        <v>5.09</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.91</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.39</v>
+        <v>3.89</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.41</v>
+        <v>4.08</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.21</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44825.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="D3" s="4" t="n">
         <v>0.71</v>
       </c>
-      <c r="C3" s="4" t="n">
-        <v>0.48</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="E3" s="4" t="n">
-        <v>1.38</v>
+        <v>13.77</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.41</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>0.52</v>
+        <v>5.24</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>1.67</v>
+        <v>16.69</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>0.76</v>
+        <v>7.6</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>0.34</v>
+        <v>3.39</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>0.5</v>
+        <v>4.97</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.16</v>
+        <v>1.6</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>0.37</v>
+        <v>3.71</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.46</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.02</v>
+        <v>0.2</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>7.23</v>
+        <v>72.34</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>1.45</v>
+        <v>14.5</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>0.51</v>
+        <v>5.07</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>0.95</v>
+        <v>9.5</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>0.58</v>
+        <v>5.81</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>0.82</v>
+        <v>8.18</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.41</v>
+        <v>4.14</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.4</v>
+        <v>3.96</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.6</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>0.62</v>
+        <v>6.16</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.93</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.25</v>
+        <v>2.51</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44825.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.51</v>
+        <v>15.15</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.99</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.78</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.19</v>
+        <v>31.88</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.7</v>
+        <v>27</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.17</v>
+        <v>11.7</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.2</v>
+        <v>41.99</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.77</v>
+        <v>17.72</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>0.8</v>
+        <v>7.96</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.18</v>
+        <v>11.76</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.3</v>
+        <v>13</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.4</v>
+        <v>14.02</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.37</v>
+        <v>3.7</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.11</v>
+        <v>11.14</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>1.71</v>
+        <v>17.12</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.92</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.43</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.44</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>16.98</v>
+        <v>169.81</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.25</v>
+        <v>32.46</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.09</v>
+        <v>10.92</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.18</v>
+        <v>21.79</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.19</v>
+        <v>11.95</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.48</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.08</v>
+        <v>20.76</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.43</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.85</v>
+        <v>8.49</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.05</v>
+        <v>10.55</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.37</v>
+        <v>13.66</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.79</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.81</v>
+        <v>38.1</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.59</v>
+        <v>5.95</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.32</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44825.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.64</v>
+        <v>6.43</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.54</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.41</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.32</v>
+        <v>13.21</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.14</v>
+        <v>11.4</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.49</v>
+        <v>4.9</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2.24</v>
+        <v>22.36</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.34</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.34</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.48</v>
+        <v>4.82</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.54</v>
+        <v>5.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0.6</v>
+        <v>5.96</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.16</v>
+        <v>1.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.49</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.74</v>
+        <v>7.38</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.37</v>
+        <v>3.72</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>6.69</v>
+        <v>66.91</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.38</v>
+        <v>13.8</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.46</v>
+        <v>4.64</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.92</v>
+        <v>9.23</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.51</v>
+        <v>5.14</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.39</v>
+        <v>3.95</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.47</v>
+        <v>4.65</v>
       </c>
       <c r="AD5" s="4" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="AE5" s="4" t="n">
         <v>0.57</v>
       </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.06</v>
-      </c>
       <c r="AF5" s="4" t="n">
-        <v>2.06</v>
+        <v>20.64</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.24</v>
+        <v>2.43</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.46</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_494.xlsx
+++ b/DATA_goal/Junction_Flooding_494.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44825.54861111111</v>
+        <v>45175.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.41</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.83</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.69</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.42</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.34</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.59</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.09</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.62</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.87</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.39</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.57</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.26</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.9</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.6</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.1</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.51</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.77</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.78</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.65</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.95</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.18</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.91</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.55</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.92</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.09</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.91</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.89</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.08</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.88</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.07</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44825.55555555555</v>
+        <v>45175.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.13</v>
+        <v>12.011</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.75</v>
+        <v>8.336</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.71</v>
+        <v>1.67</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.77</v>
+        <v>25.482</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.41</v>
+        <v>21.092</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.24</v>
+        <v>9.452</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.69</v>
+        <v>39.081</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.6</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.39</v>
+        <v>6.222</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.97</v>
+        <v>9.433999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.86</v>
+        <v>10.259</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.66</v>
+        <v>10.653</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.6</v>
+        <v>3.021</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.54</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>13.225</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.71</v>
+        <v>8.106</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.46</v>
+        <v>1.586</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.2</v>
+        <v>0.931</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.34</v>
+        <v>135.754</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.5</v>
+        <v>26.391</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.07</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.5</v>
+        <v>17.422</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.81</v>
+        <v>9.336</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.61</v>
+        <v>1.074</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.18</v>
+        <v>18.476</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.14</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.96</v>
+        <v>6.985</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.6</v>
+        <v>8.167999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.16</v>
+        <v>10.653</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.32</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.93</v>
+        <v>35.365</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.51</v>
+        <v>4.776</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.68</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44825.5625</v>
+        <v>45175.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.15</v>
+        <v>21.139</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.99</v>
+        <v>15.428</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.78</v>
+        <v>1.482</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.88</v>
+        <v>45.565</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27</v>
+        <v>37.69</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.7</v>
+        <v>16.635</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.99</v>
+        <v>63.137</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.72</v>
+        <v>25.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.96</v>
+        <v>11.285</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.76</v>
+        <v>16.923</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>13</v>
+        <v>18.367</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.02</v>
+        <v>19.245</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.7</v>
+        <v>5.313</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.14</v>
+        <v>16.542</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.12</v>
+        <v>23.485</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.220000000000001</v>
+        <v>13.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.43</v>
+        <v>1.123</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.44</v>
+        <v>0.951</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>169.81</v>
+        <v>244.473</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.46</v>
+        <v>46.226</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.92</v>
+        <v>15.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.79</v>
+        <v>30.982</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.95</v>
+        <v>16.493</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.48</v>
+        <v>2.041</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.76</v>
+        <v>30.734</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.43</v>
+        <v>13.487</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.49</v>
+        <v>12.022</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.55</v>
+        <v>14.115</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.66</v>
+        <v>19.218</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.79</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.1</v>
+        <v>57.003</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.95</v>
+        <v>8.571999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.2</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44825.56944444445</v>
+        <v>45175.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.43</v>
+        <v>0.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.54</v>
+        <v>0.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.41</v>
+        <v>0.57</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.21</v>
+        <v>0.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.4</v>
+        <v>0.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.9</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.36</v>
+        <v>10.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.34</v>
+        <v>0.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.34</v>
+        <v>0.35</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.82</v>
+        <v>0.18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.45</v>
+        <v>0.36</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.96</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.49</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.38</v>
+        <v>0.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.72</v>
+        <v>0.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.29</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.91</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.8</v>
+        <v>1.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.64</v>
+        <v>0.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.23</v>
+        <v>1.27</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.14</v>
+        <v>0.7</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.61</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.39</v>
+        <v>4.34</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.95</v>
+        <v>0.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.63</v>
+        <v>0.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.65</v>
+        <v>0.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.73</v>
+        <v>0.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.64</v>
+        <v>10.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.43</v>
+        <v>0.08</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.46</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44825.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.89</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.23</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_494.xlsx
+++ b/DATA_goal/Junction_Flooding_494.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -464,12 +464,12 @@
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="8" customWidth="1" min="27" max="27"/>
-    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,418 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>45175.50694444445</v>
+        <v>44825.54861111111</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>22.58</v>
+        <v>4.411</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>15.542</v>
+        <v>1.834</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.221</v>
+        <v>1.687</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>47.493</v>
+        <v>4.96</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>39.284</v>
+        <v>6.46</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>17.769</v>
+        <v>2.421</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>58.8</v>
+        <v>5.343</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>27.341</v>
+        <v>2.587</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>11.61</v>
+        <v>1.088</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>17.881</v>
+        <v>1.625</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>18.828</v>
+        <v>2.867</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>19.728</v>
+        <v>4.386</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>5.673</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>17.67</v>
+        <v>1.262</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>24.849</v>
+        <v>5.05</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>14.79</v>
+        <v>0.896</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>3.779</v>
+        <v>0.601</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.46</v>
+        <v>0.104</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>261.617</v>
+        <v>31.507</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>49.202</v>
+        <v>6.768</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>16.31</v>
+        <v>2.777</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>32.642</v>
+        <v>3.652</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>17.025</v>
+        <v>3.949</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>2.109</v>
+        <v>0.176</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>29.266</v>
+        <v>1.915</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>14.407</v>
+        <v>1.546</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>12.944</v>
+        <v>1.916</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>15.145</v>
+        <v>5.093</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>19.485</v>
+        <v>2.911</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.64</v>
+        <v>3.891</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>51.902</v>
+        <v>4.078</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>9.071</v>
+        <v>0.877</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>20.391</v>
+        <v>2.065</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>45175.51388888889</v>
+        <v>44825.55555555555</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>12.011</v>
+        <v>7.134</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>8.336</v>
+        <v>4.754</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.67</v>
+        <v>0.712</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>25.482</v>
+        <v>13.772</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>21.092</v>
+        <v>12.413</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>9.452</v>
+        <v>5.24</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>39.081</v>
+        <v>16.691</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>14.543</v>
+        <v>7.602</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>6.222</v>
+        <v>3.39</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>9.433999999999999</v>
+        <v>4.965</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>10.259</v>
+        <v>5.86</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>10.653</v>
+        <v>6.659</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.021</v>
+        <v>1.603</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>9.398999999999999</v>
+        <v>4.538</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>13.225</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>8.106</v>
+        <v>3.706</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.586</v>
+        <v>0.461</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.931</v>
+        <v>0.196</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>135.754</v>
+        <v>72.34</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>26.391</v>
+        <v>14.504</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>8.676</v>
+        <v>5.071</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>17.422</v>
+        <v>9.496</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>9.336</v>
+        <v>5.814</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1.074</v>
+        <v>0.607</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>18.476</v>
+        <v>8.183999999999999</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>7.663</v>
+        <v>4.141</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.985</v>
+        <v>3.957</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>8.167999999999999</v>
+        <v>5.601</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>10.653</v>
+        <v>6.155</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.294</v>
+        <v>1.318</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>35.365</v>
+        <v>14.928</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>4.776</v>
+        <v>2.505</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>10.847</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>45175.52083333334</v>
+        <v>44825.5625</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>21.139</v>
+        <v>15.146</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.428</v>
+        <v>10.987</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.482</v>
+        <v>0.782</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>45.565</v>
+        <v>31.875</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>37.69</v>
+        <v>27.005</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>16.635</v>
+        <v>11.697</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>63.137</v>
+        <v>41.991</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.596</v>
+        <v>17.715</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.285</v>
+        <v>7.955</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.923</v>
+        <v>11.765</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>18.367</v>
+        <v>12.996</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>19.245</v>
+        <v>14.023</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.313</v>
+        <v>3.701</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.542</v>
+        <v>11.143</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>23.485</v>
+        <v>17.121</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.98</v>
+        <v>9.215</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>1.123</v>
+        <v>0.427</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.951</v>
+        <v>0.437</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>244.473</v>
+        <v>169.807</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>46.226</v>
+        <v>32.457</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>15.269</v>
+        <v>10.917</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>30.982</v>
+        <v>21.79</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>16.493</v>
+        <v>11.945</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.041</v>
+        <v>1.478</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.734</v>
+        <v>20.762</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>13.487</v>
+        <v>9.433999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>12.022</v>
+        <v>8.494</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>14.115</v>
+        <v>10.547</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>19.218</v>
+        <v>13.663</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.784</v>
+        <v>0.793</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>57.003</v>
+        <v>38.102</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.571999999999999</v>
+        <v>5.948</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>19.09</v>
+        <v>13.203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>45175.52777777778</v>
+        <v>44825.56944444445</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.47</v>
+        <v>6.428</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.06</v>
+        <v>4.539</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.57</v>
+        <v>0.408</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>0.73</v>
+        <v>13.211</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.37</v>
+        <v>11.398</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0</v>
+        <v>4.903</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>10.52</v>
+        <v>22.364</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.58</v>
+        <v>7.341</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>0.35</v>
+        <v>3.338</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>0.18</v>
+        <v>4.817</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>0.36</v>
+        <v>5.45</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>0</v>
+        <v>5.959</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>0.38</v>
+        <v>4.488</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>0.72</v>
+        <v>7.385</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>0.55</v>
+        <v>3.719</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.7</v>
+        <v>0.294</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.22</v>
+        <v>0.181</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>0</v>
+        <v>66.90900000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.78</v>
+        <v>13.804</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.35</v>
+        <v>4.639</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.27</v>
+        <v>9.228999999999999</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.7</v>
+        <v>5.141</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.05</v>
+        <v>0.608</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>4.34</v>
+        <v>10.392</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.31</v>
+        <v>3.946</v>
       </c>
       <c r="AB5" s="4" t="n">
+        <v>3.628</v>
+      </c>
+      <c r="AC5" s="4" t="n">
+        <v>4.651</v>
+      </c>
+      <c r="AD5" s="4" t="n">
+        <v>5.729</v>
+      </c>
+      <c r="AE5" s="4" t="n">
+        <v>0.5669999999999999</v>
+      </c>
+      <c r="AF5" s="4" t="n">
+        <v>20.636</v>
+      </c>
+      <c r="AG5" s="4" t="n">
+        <v>2.428</v>
+      </c>
+      <c r="AH5" s="4" t="n">
+        <v>5.461</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44825.57637731481</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>8.31</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>17.47</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>14.82</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>6.42</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>24.89</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>9.720000000000001</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>6.43</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>7.13</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>7.69</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>6.06</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>89.8</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>17.82</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>6.01</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>11.82</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>7.49</v>
+      </c>
+      <c r="AE6" s="4" t="n">
         <v>0.44</v>
       </c>
-      <c r="AC5" s="4" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="AD5" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
-      </c>
-      <c r="AF5" s="4" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="AG5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AH5" s="4" t="n">
-        <v>0.46</v>
+      <c r="AF6" s="4" t="n">
+        <v>22.5</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>7.23</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_494.xlsx
+++ b/DATA_goal/Junction_Flooding_494.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,7 +451,7 @@
     <col width="8" customWidth="1" min="7" max="7"/>
     <col width="8" customWidth="1" min="8" max="8"/>
     <col width="8" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
     <col width="8" customWidth="1" min="12" max="12"/>
     <col width="8" customWidth="1" min="13" max="13"/>
@@ -464,12 +464,12 @@
     <col width="9" customWidth="1" min="20" max="20"/>
     <col width="8" customWidth="1" min="21" max="21"/>
     <col width="8" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
     <col width="8" customWidth="1" min="24" max="24"/>
     <col width="7" customWidth="1" min="25" max="25"/>
     <col width="8" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
     <col width="8" customWidth="1" min="29" max="29"/>
     <col width="8" customWidth="1" min="30" max="30"/>
     <col width="7" customWidth="1" min="31" max="31"/>
@@ -652,522 +652,418 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>44825.54861111111</v>
+        <v>45175.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.411</v>
+        <v>22.58</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.834</v>
+        <v>15.542</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>1.687</v>
+        <v>4.221</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.96</v>
+        <v>47.493</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>6.46</v>
+        <v>39.284</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>2.421</v>
+        <v>17.769</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>5.343</v>
+        <v>58.8</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.587</v>
+        <v>27.341</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>1.088</v>
+        <v>11.61</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.625</v>
+        <v>17.881</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>2.867</v>
+        <v>18.828</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>4.386</v>
+        <v>19.728</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>5.673</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.262</v>
+        <v>17.67</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>5.05</v>
+        <v>24.849</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.896</v>
+        <v>14.79</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.601</v>
+        <v>3.779</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.104</v>
+        <v>2.46</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>31.507</v>
+        <v>261.617</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>6.768</v>
+        <v>49.202</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>2.777</v>
+        <v>16.31</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>3.652</v>
+        <v>32.642</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>3.949</v>
+        <v>17.025</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.176</v>
+        <v>2.109</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>1.915</v>
+        <v>29.266</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.546</v>
+        <v>14.407</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.916</v>
+        <v>12.944</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>5.093</v>
+        <v>15.145</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>2.911</v>
+        <v>19.485</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.891</v>
+        <v>3.64</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.078</v>
+        <v>51.902</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.877</v>
+        <v>9.071</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.065</v>
+        <v>20.391</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>44825.55555555555</v>
+        <v>45175.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>7.134</v>
+        <v>12.011</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>4.754</v>
+        <v>8.336</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.712</v>
+        <v>1.67</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>13.772</v>
+        <v>25.482</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>12.413</v>
+        <v>21.092</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>5.24</v>
+        <v>9.452</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>16.691</v>
+        <v>39.081</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>7.602</v>
+        <v>14.543</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>3.39</v>
+        <v>6.222</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>4.965</v>
+        <v>9.433999999999999</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>5.86</v>
+        <v>10.259</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>6.659</v>
+        <v>10.653</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>1.603</v>
+        <v>3.021</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>4.538</v>
+        <v>9.398999999999999</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>8.199999999999999</v>
+        <v>13.225</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>3.706</v>
+        <v>8.106</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.461</v>
+        <v>1.586</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.196</v>
+        <v>0.931</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>72.34</v>
+        <v>135.754</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>14.504</v>
+        <v>26.391</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>5.071</v>
+        <v>8.676</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>9.496</v>
+        <v>17.422</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>5.814</v>
+        <v>9.336</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.607</v>
+        <v>1.074</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>8.183999999999999</v>
+        <v>18.476</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>4.141</v>
+        <v>7.663</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>3.957</v>
+        <v>6.985</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>5.601</v>
+        <v>8.167999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>6.155</v>
+        <v>10.653</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.318</v>
+        <v>1.294</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>14.928</v>
+        <v>35.365</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>2.505</v>
+        <v>4.776</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>5.68</v>
+        <v>10.847</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>44825.5625</v>
+        <v>45175.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>15.146</v>
+        <v>21.139</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10.987</v>
+        <v>15.428</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.782</v>
+        <v>1.482</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>31.875</v>
+        <v>45.565</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>27.005</v>
+        <v>37.69</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>11.697</v>
+        <v>16.635</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>41.991</v>
+        <v>63.137</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>17.715</v>
+        <v>25.596</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>7.955</v>
+        <v>11.285</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>11.765</v>
+        <v>16.923</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.996</v>
+        <v>18.367</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>14.023</v>
+        <v>19.245</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.701</v>
+        <v>5.313</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>11.143</v>
+        <v>16.542</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>17.121</v>
+        <v>23.485</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.215</v>
+        <v>13.98</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.427</v>
+        <v>1.123</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.437</v>
+        <v>0.951</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>169.807</v>
+        <v>244.473</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>32.457</v>
+        <v>46.226</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.917</v>
+        <v>15.269</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>21.79</v>
+        <v>30.982</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>11.945</v>
+        <v>16.493</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.478</v>
+        <v>2.041</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.762</v>
+        <v>30.734</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>9.433999999999999</v>
+        <v>13.487</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8.494</v>
+        <v>12.022</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>10.547</v>
+        <v>14.115</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>13.663</v>
+        <v>19.218</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.793</v>
+        <v>0.784</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>38.102</v>
+        <v>57.003</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.948</v>
+        <v>8.571999999999999</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>13.203</v>
+        <v>19.09</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>44825.56944444445</v>
+        <v>45175.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.428</v>
+        <v>0.47</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>4.539</v>
+        <v>0.06</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.408</v>
+        <v>0.57</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>13.211</v>
+        <v>0.73</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>11.398</v>
+        <v>0.37</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.903</v>
+        <v>0</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>22.364</v>
+        <v>10.52</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.341</v>
+        <v>0.58</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.338</v>
+        <v>0.35</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>4.817</v>
+        <v>0.18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>5.45</v>
+        <v>0.36</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>5.959</v>
+        <v>0</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4.488</v>
+        <v>0.38</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.385</v>
+        <v>0.72</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>3.719</v>
+        <v>0.55</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.294</v>
+        <v>0.7</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.181</v>
+        <v>0.22</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>66.90900000000001</v>
+        <v>0</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>13.804</v>
+        <v>1.78</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.639</v>
+        <v>0.35</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.228999999999999</v>
+        <v>1.27</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.141</v>
+        <v>0.7</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.608</v>
+        <v>0.05</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>10.392</v>
+        <v>4.34</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>3.946</v>
+        <v>0.31</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.628</v>
+        <v>0.44</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.651</v>
+        <v>0.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>5.729</v>
+        <v>0.33</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>20.636</v>
+        <v>10.21</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>2.428</v>
+        <v>0.08</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.461</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44825.57637731481</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>8.31</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>17.47</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>14.82</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>6.42</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>24.89</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>9.720000000000001</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>6.43</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>7.69</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>2.04</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>5.03</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>89.8</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>11.95</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>6.55</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>5.19</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>5.8</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>22.5</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>7.23</v>
+        <v>0.46</v>
       </c>
     </row>
   </sheetData>
